--- a/src/main/resources/excel/DEVICE.xlsx
+++ b/src/main/resources/excel/DEVICE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annile/gaeasoft/KPI/2025/workspace/gaea-asset-api/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FF51C35-8A66-784E-B033-903025A0C800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F3DE6C-7A09-8C43-BE82-18FEF2275866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8340" yWindow="6880" windowWidth="29400" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="21">
-  <si>
-    <t>구분</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
   <si>
     <t>부서</t>
   </si>
@@ -86,6 +83,14 @@
   </si>
   <si>
     <t xml:space="preserve">다운로드 일 : </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 유형</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +211,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,107 +547,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="4" customWidth="1"/>
-    <col min="15" max="16" width="8.83203125" style="4"/>
-    <col min="17" max="17" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="48.33203125" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="5.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" bestFit="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="4" customWidth="1"/>
+    <col min="16" max="17" width="8.83203125" style="4"/>
+    <col min="18" max="18" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="48.33203125" style="4" customWidth="1"/>
+    <col min="22" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="5" customFormat="1">
+    <row r="1" spans="1:21" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -650,6 +656,186 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70013FD-28B0-D041-93BC-3CF020FDD54C}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="4"/>
+    <col min="13" max="13" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.33203125" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E990E5EB-B040-BC41-826E-7DF8A2F1CD12}">
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="1" width="5.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.33203125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="48.33203125" style="4" customWidth="1"/>
+    <col min="17" max="16384" width="8.83203125" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="5" customFormat="1">
+      <c r="A1" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CF7C1D-BD5B-244F-B756-D2A8EC7ECD79}">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -658,17 +844,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="5.83203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="15" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" style="4" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
@@ -678,234 +864,57 @@
   <sheetData>
     <row r="1" spans="1:15" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="L2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E990E5EB-B040-BC41-826E-7DF8A2F1CD12}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9" style="4" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="48.33203125" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CF7C1D-BD5B-244F-B756-D2A8EC7ECD79}">
-  <dimension ref="A1:N2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" style="4"/>
-    <col min="2" max="2" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15" style="4" customWidth="1"/>
-    <col min="10" max="10" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="48.33203125" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:XFD1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/excel/DEVICE.xlsx
+++ b/src/main/resources/excel/DEVICE.xlsx
@@ -1,29 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annile/gaeasoft/KPI/2025/workspace/gaea-asset-api/src/main/resources/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F3DE6C-7A09-8C43-BE82-18FEF2275866}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5047869-C3A7-6245-A67E-8358CBDE4E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="6880" windowWidth="29400" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8480" yWindow="6220" windowWidth="29400" windowHeight="19120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="PC" sheetId="1" r:id="rId1"/>
-    <sheet name="모니터" sheetId="6" r:id="rId2"/>
-    <sheet name="핸드폰" sheetId="7" r:id="rId3"/>
-    <sheet name="기타" sheetId="5" r:id="rId4"/>
+    <sheet name="장비 관리" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>부서</t>
   </si>
@@ -210,7 +207,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -550,7 +547,7 @@
   <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" outlineLevelCol="1"/>
@@ -652,270 +649,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70013FD-28B0-D041-93BC-3CF020FDD54C}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="5.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.83203125" style="4"/>
-    <col min="13" max="13" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.33203125" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E990E5EB-B040-BC41-826E-7DF8A2F1CD12}">
-  <dimension ref="A1:P2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="5.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="4" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.33203125" style="4" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="48.33203125" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="8.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96CF7C1D-BD5B-244F-B756-D2A8EC7ECD79}">
-  <dimension ref="A1:O2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
-  <cols>
-    <col min="1" max="1" width="5.83203125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="15" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="4" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="48.33203125" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="8.83203125" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1">
-      <c r="A1" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>